--- a/Excel/4. Dates/Dates.xlsx
+++ b/Excel/4. Dates/Dates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\4. Dates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\4. Dates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC401987-CE6F-43E3-B472-6F10426C71F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F68B0B-9B0C-4E2C-AEBE-CAD59F984DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yy\ \ h:mm"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -445,63 +445,64 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,7 +533,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1486,8 +1486,9 @@
     <col min="12" max="12" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
     <col min="14" max="14" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1503,24 +1504,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1568,11 @@
       </c>
       <c r="N6" s="5">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45903</v>
+      </c>
+      <c r="O6" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45903</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1577,6 +1582,9 @@
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
       <c r="M7" s="21"/>
+      <c r="O7" s="23">
+        <v>45903.629241550901</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="36"/>
@@ -1612,13 +1620,13 @@
       <c r="M11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O11" s="61">
+      <c r="O11" s="32">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
       <c r="P11" s="23">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.5">
@@ -1663,7 +1671,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="31">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1703,16 +1711,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1724,7 +1732,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1760,23 +1768,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1785,13 +1793,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1801,20 +1809,20 @@
       </c>
       <c r="M4" s="25">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
       <c r="N4" s="26">
         <f ca="1">DAY(M4)</f>
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1824,59 +1832,59 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">M4-5</f>
-        <v>45894.505904513891</v>
+        <v>45898.634872453702</v>
       </c>
       <c r="N5" s="26">
         <f ca="1">DAY(M5)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
       <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
       <c r="L8" s="27" t="s">
         <v>10</v>
       </c>
       <c r="M8" s="25">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
       <c r="N8" s="26">
         <f ca="1">MONTH(M8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
       <c r="L9" s="27" t="s">
         <v>10</v>
       </c>
       <c r="M9" s="25">
         <f ca="1">M8-5</f>
-        <v>45894.505904513891</v>
+        <v>45898.634872453702</v>
       </c>
       <c r="N9" s="26">
         <f ca="1">MONTH(M9)</f>
@@ -1884,33 +1892,33 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
       <c r="L12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M12" s="25">
         <f ca="1">NOW()</f>
-        <v>45899.505904513891</v>
+        <v>45903.634872453702</v>
       </c>
       <c r="N12" s="26">
         <f ca="1">YEAR(M12)</f>
@@ -1918,17 +1926,17 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="L13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="25">
         <f ca="1">M12-5</f>
-        <v>45894.505904513891</v>
+        <v>45898.634872453702</v>
       </c>
       <c r="N13" s="26">
         <f ca="1">YEAR(M13)</f>
@@ -1937,11 +1945,11 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B15" s="4"/>
@@ -1952,7 +1960,7 @@
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="43"/>
@@ -2033,7 +2041,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2066,23 +2074,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2091,13 +2099,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2114,11 +2122,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2128,11 +2136,11 @@
       </c>
       <c r="M5" s="29">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="N5" s="29">
         <f ca="1">M5-11</f>
-        <v>45888</v>
+        <v>45892</v>
       </c>
       <c r="O5" s="22">
         <f ca="1">_xlfn.DAYS(M5,N5)</f>
@@ -2140,11 +2148,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
       <c r="M6" s="29">
         <v>43383</v>
       </c>
@@ -2154,33 +2162,33 @@
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
       <c r="M10" s="20" t="s">
         <v>15</v>
       </c>
@@ -2205,11 +2213,11 @@
       </c>
       <c r="M11" s="29">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="N11" s="29">
         <f ca="1">M11-11</f>
-        <v>45888</v>
+        <v>45892</v>
       </c>
       <c r="O11" s="22">
         <f ca="1">M11-N11</f>
@@ -2296,11 +2304,11 @@
       </c>
       <c r="M17" s="29">
         <f ca="1">TODAY()</f>
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="N17" s="29">
         <f ca="1">M17-11</f>
-        <v>45888</v>
+        <v>45892</v>
       </c>
       <c r="O17" s="22">
         <f ca="1">DATEDIF(N17,M17,"d")</f>
